--- a/Metodos_Numericos/Plantillas/Integrales.xlsx
+++ b/Metodos_Numericos/Plantillas/Integrales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\programar\EMI-4TO_Semestre\Metodos_Numericos\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC611649-F052-47A7-B191-DD2FD188F186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B296A7-193E-461E-A75E-52C9C909159F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2514D249-D739-4E69-9689-9A6C17F54E0A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Grafica de la Funcion" sheetId="1" r:id="rId1"/>
     <sheet name="Metodo del trapecio" sheetId="2" r:id="rId2"/>
     <sheet name="Simpson 1-3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Simpson 3-8" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>METODO DEL TRAPECIO</t>
   </si>
@@ -78,10 +78,10 @@
     <t>i_exacta=</t>
   </si>
   <si>
-    <t>tabla</t>
-  </si>
-  <si>
     <t>PP*f_(x_i)</t>
+  </si>
+  <si>
+    <t>METODO SIMPSON 3/8</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,8 +654,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -676,7 +676,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -709,12 +709,103 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B50DFE5-696D-4A70-B57D-7707770C64EF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="e">
+        <f>ABS(B4-B3)/B5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="e">
+        <f>$B$3+A10*$B$6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10">
+        <f>IF(OR(A10=1,A10=$B$5),1,IF(MOD(A10,3)=0,2,3))</f>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>D10*C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>